--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_231.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_231.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32859-d7075786-Reviews-DusitD2_Hotel_Constance_Pasadena-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>403</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>423</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Los-Angeles-Hotels-Dusitd2-Hotel-Constance-Pasadena.h9127771.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_231.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_231.xlsx
@@ -5676,7 +5676,7 @@
         <v>61501</v>
       </c>
       <c r="B2" t="n">
-        <v>142813</v>
+        <v>174024</v>
       </c>
       <c r="C2" t="s">
         <v>44</v>
@@ -5808,7 +5808,7 @@
         <v>61501</v>
       </c>
       <c r="B4" t="n">
-        <v>142814</v>
+        <v>174025</v>
       </c>
       <c r="C4" t="s">
         <v>64</v>
@@ -5871,7 +5871,7 @@
         <v>61501</v>
       </c>
       <c r="B5" t="n">
-        <v>142815</v>
+        <v>174026</v>
       </c>
       <c r="C5" t="s">
         <v>72</v>
@@ -5936,7 +5936,7 @@
         <v>61501</v>
       </c>
       <c r="B6" t="n">
-        <v>142816</v>
+        <v>174027</v>
       </c>
       <c r="C6" t="s">
         <v>81</v>
@@ -6072,7 +6072,7 @@
         <v>61501</v>
       </c>
       <c r="B8" t="n">
-        <v>142817</v>
+        <v>174028</v>
       </c>
       <c r="C8" t="s">
         <v>95</v>
@@ -6206,7 +6206,7 @@
         <v>61501</v>
       </c>
       <c r="B10" t="n">
-        <v>142818</v>
+        <v>174029</v>
       </c>
       <c r="C10" t="s">
         <v>110</v>
@@ -6275,7 +6275,7 @@
         <v>61501</v>
       </c>
       <c r="B11" t="n">
-        <v>142819</v>
+        <v>174030</v>
       </c>
       <c r="C11" t="s">
         <v>117</v>
@@ -6332,7 +6332,7 @@
         <v>61501</v>
       </c>
       <c r="B12" t="n">
-        <v>142820</v>
+        <v>174031</v>
       </c>
       <c r="C12" t="s">
         <v>123</v>
@@ -6474,7 +6474,7 @@
         <v>61501</v>
       </c>
       <c r="B14" t="n">
-        <v>142821</v>
+        <v>174032</v>
       </c>
       <c r="C14" t="s">
         <v>138</v>
@@ -6612,7 +6612,7 @@
         <v>61501</v>
       </c>
       <c r="B16" t="n">
-        <v>142822</v>
+        <v>174033</v>
       </c>
       <c r="C16" t="s">
         <v>153</v>
@@ -6681,7 +6681,7 @@
         <v>61501</v>
       </c>
       <c r="B17" t="n">
-        <v>142823</v>
+        <v>174034</v>
       </c>
       <c r="C17" t="s">
         <v>160</v>
@@ -6750,7 +6750,7 @@
         <v>61501</v>
       </c>
       <c r="B18" t="n">
-        <v>142824</v>
+        <v>174035</v>
       </c>
       <c r="C18" t="s">
         <v>168</v>
@@ -6955,7 +6955,7 @@
         <v>61501</v>
       </c>
       <c r="B21" t="n">
-        <v>142825</v>
+        <v>174036</v>
       </c>
       <c r="C21" t="s">
         <v>193</v>
@@ -7024,7 +7024,7 @@
         <v>61501</v>
       </c>
       <c r="B22" t="n">
-        <v>142826</v>
+        <v>174037</v>
       </c>
       <c r="C22" t="s">
         <v>201</v>
@@ -7160,7 +7160,7 @@
         <v>61501</v>
       </c>
       <c r="B24" t="n">
-        <v>142827</v>
+        <v>174038</v>
       </c>
       <c r="C24" t="s">
         <v>215</v>
@@ -7225,7 +7225,7 @@
         <v>61501</v>
       </c>
       <c r="B25" t="n">
-        <v>142828</v>
+        <v>174039</v>
       </c>
       <c r="C25" t="s">
         <v>222</v>
@@ -7290,7 +7290,7 @@
         <v>61501</v>
       </c>
       <c r="B26" t="n">
-        <v>142829</v>
+        <v>174040</v>
       </c>
       <c r="C26" t="s">
         <v>229</v>
@@ -7412,7 +7412,7 @@
         <v>61501</v>
       </c>
       <c r="B28" t="n">
-        <v>142830</v>
+        <v>174041</v>
       </c>
       <c r="C28" t="s">
         <v>242</v>
@@ -7479,7 +7479,7 @@
         <v>61501</v>
       </c>
       <c r="B29" t="n">
-        <v>142831</v>
+        <v>174042</v>
       </c>
       <c r="C29" t="s">
         <v>248</v>
@@ -7725,7 +7725,7 @@
         <v>61501</v>
       </c>
       <c r="B33" t="n">
-        <v>142832</v>
+        <v>174043</v>
       </c>
       <c r="C33" t="s">
         <v>275</v>
@@ -7782,7 +7782,7 @@
         <v>61501</v>
       </c>
       <c r="B34" t="n">
-        <v>142833</v>
+        <v>174044</v>
       </c>
       <c r="C34" t="s">
         <v>281</v>
@@ -7843,7 +7843,7 @@
         <v>61501</v>
       </c>
       <c r="B35" t="n">
-        <v>142834</v>
+        <v>174045</v>
       </c>
       <c r="C35" t="s">
         <v>287</v>
@@ -7908,7 +7908,7 @@
         <v>61501</v>
       </c>
       <c r="B36" t="n">
-        <v>142835</v>
+        <v>174046</v>
       </c>
       <c r="C36" t="s">
         <v>294</v>
@@ -8030,7 +8030,7 @@
         <v>61501</v>
       </c>
       <c r="B38" t="n">
-        <v>142836</v>
+        <v>174047</v>
       </c>
       <c r="C38" t="s">
         <v>307</v>
@@ -8095,7 +8095,7 @@
         <v>61501</v>
       </c>
       <c r="B39" t="n">
-        <v>142837</v>
+        <v>174048</v>
       </c>
       <c r="C39" t="s">
         <v>313</v>
@@ -8288,7 +8288,7 @@
         <v>61501</v>
       </c>
       <c r="B42" t="n">
-        <v>142838</v>
+        <v>174049</v>
       </c>
       <c r="C42" t="s">
         <v>333</v>
@@ -8353,7 +8353,7 @@
         <v>61501</v>
       </c>
       <c r="B43" t="n">
-        <v>142839</v>
+        <v>174050</v>
       </c>
       <c r="C43" t="s">
         <v>339</v>
@@ -8414,7 +8414,7 @@
         <v>61501</v>
       </c>
       <c r="B44" t="n">
-        <v>142840</v>
+        <v>174051</v>
       </c>
       <c r="C44" t="s">
         <v>346</v>
@@ -8475,7 +8475,7 @@
         <v>61501</v>
       </c>
       <c r="B45" t="n">
-        <v>142841</v>
+        <v>174052</v>
       </c>
       <c r="C45" t="s">
         <v>353</v>
@@ -8540,7 +8540,7 @@
         <v>61501</v>
       </c>
       <c r="B46" t="n">
-        <v>142842</v>
+        <v>174053</v>
       </c>
       <c r="C46" t="s">
         <v>360</v>
@@ -8668,7 +8668,7 @@
         <v>61501</v>
       </c>
       <c r="B48" t="n">
-        <v>142843</v>
+        <v>174054</v>
       </c>
       <c r="C48" t="s">
         <v>374</v>
@@ -8729,7 +8729,7 @@
         <v>61501</v>
       </c>
       <c r="B49" t="n">
-        <v>142844</v>
+        <v>174055</v>
       </c>
       <c r="C49" t="s">
         <v>380</v>
@@ -8796,7 +8796,7 @@
         <v>61501</v>
       </c>
       <c r="B50" t="n">
-        <v>142845</v>
+        <v>174056</v>
       </c>
       <c r="C50" t="s">
         <v>386</v>
@@ -8857,7 +8857,7 @@
         <v>61501</v>
       </c>
       <c r="B51" t="n">
-        <v>142846</v>
+        <v>174057</v>
       </c>
       <c r="C51" t="s">
         <v>393</v>
@@ -8924,7 +8924,7 @@
         <v>61501</v>
       </c>
       <c r="B52" t="n">
-        <v>142847</v>
+        <v>174058</v>
       </c>
       <c r="C52" t="s">
         <v>399</v>
@@ -8991,7 +8991,7 @@
         <v>61501</v>
       </c>
       <c r="B53" t="n">
-        <v>142848</v>
+        <v>174059</v>
       </c>
       <c r="C53" t="s">
         <v>406</v>
@@ -9058,7 +9058,7 @@
         <v>61501</v>
       </c>
       <c r="B54" t="n">
-        <v>142849</v>
+        <v>174060</v>
       </c>
       <c r="C54" t="s">
         <v>413</v>
@@ -9190,7 +9190,7 @@
         <v>61501</v>
       </c>
       <c r="B56" t="n">
-        <v>142850</v>
+        <v>174061</v>
       </c>
       <c r="C56" t="s">
         <v>425</v>
@@ -9308,7 +9308,7 @@
         <v>61501</v>
       </c>
       <c r="B58" t="n">
-        <v>142851</v>
+        <v>174062</v>
       </c>
       <c r="C58" t="s">
         <v>439</v>
@@ -9430,7 +9430,7 @@
         <v>61501</v>
       </c>
       <c r="B60" t="n">
-        <v>142852</v>
+        <v>174063</v>
       </c>
       <c r="C60" t="s">
         <v>453</v>
@@ -9751,7 +9751,7 @@
         <v>61501</v>
       </c>
       <c r="B65" t="n">
-        <v>142853</v>
+        <v>174064</v>
       </c>
       <c r="C65" t="s">
         <v>484</v>
@@ -9812,7 +9812,7 @@
         <v>61501</v>
       </c>
       <c r="B66" t="n">
-        <v>142854</v>
+        <v>174065</v>
       </c>
       <c r="C66" t="s">
         <v>491</v>
@@ -9873,7 +9873,7 @@
         <v>61501</v>
       </c>
       <c r="B67" t="n">
-        <v>142855</v>
+        <v>174066</v>
       </c>
       <c r="C67" t="s">
         <v>497</v>
@@ -9934,7 +9934,7 @@
         <v>61501</v>
       </c>
       <c r="B68" t="n">
-        <v>142856</v>
+        <v>174067</v>
       </c>
       <c r="C68" t="s">
         <v>503</v>
@@ -9995,7 +9995,7 @@
         <v>61501</v>
       </c>
       <c r="B69" t="n">
-        <v>142857</v>
+        <v>174068</v>
       </c>
       <c r="C69" t="s">
         <v>509</v>
@@ -10062,7 +10062,7 @@
         <v>61501</v>
       </c>
       <c r="B70" t="n">
-        <v>142858</v>
+        <v>174069</v>
       </c>
       <c r="C70" t="s">
         <v>515</v>
@@ -10196,7 +10196,7 @@
         <v>61501</v>
       </c>
       <c r="B72" t="n">
-        <v>142859</v>
+        <v>174070</v>
       </c>
       <c r="C72" t="s">
         <v>528</v>
@@ -10257,7 +10257,7 @@
         <v>61501</v>
       </c>
       <c r="B73" t="n">
-        <v>142860</v>
+        <v>174071</v>
       </c>
       <c r="C73" t="s">
         <v>533</v>
@@ -10322,7 +10322,7 @@
         <v>61501</v>
       </c>
       <c r="B74" t="n">
-        <v>142861</v>
+        <v>174072</v>
       </c>
       <c r="C74" t="s">
         <v>540</v>
@@ -10389,7 +10389,7 @@
         <v>61501</v>
       </c>
       <c r="B75" t="n">
-        <v>142862</v>
+        <v>174073</v>
       </c>
       <c r="C75" t="s">
         <v>547</v>
@@ -10450,7 +10450,7 @@
         <v>61501</v>
       </c>
       <c r="B76" t="n">
-        <v>142863</v>
+        <v>174074</v>
       </c>
       <c r="C76" t="s">
         <v>554</v>
@@ -10517,7 +10517,7 @@
         <v>61501</v>
       </c>
       <c r="B77" t="n">
-        <v>142864</v>
+        <v>174075</v>
       </c>
       <c r="C77" t="s">
         <v>562</v>
@@ -10649,7 +10649,7 @@
         <v>61501</v>
       </c>
       <c r="B79" t="n">
-        <v>142865</v>
+        <v>174076</v>
       </c>
       <c r="C79" t="s">
         <v>575</v>
@@ -10836,7 +10836,7 @@
         <v>61501</v>
       </c>
       <c r="B82" t="n">
-        <v>142866</v>
+        <v>174077</v>
       </c>
       <c r="C82" t="s">
         <v>595</v>
@@ -10903,7 +10903,7 @@
         <v>61501</v>
       </c>
       <c r="B83" t="n">
-        <v>142867</v>
+        <v>174078</v>
       </c>
       <c r="C83" t="s">
         <v>602</v>
@@ -10960,7 +10960,7 @@
         <v>61501</v>
       </c>
       <c r="B84" t="n">
-        <v>142868</v>
+        <v>174079</v>
       </c>
       <c r="C84" t="s">
         <v>608</v>
@@ -11025,7 +11025,7 @@
         <v>61501</v>
       </c>
       <c r="B85" t="n">
-        <v>142869</v>
+        <v>174080</v>
       </c>
       <c r="C85" t="s">
         <v>615</v>
@@ -11092,7 +11092,7 @@
         <v>61501</v>
       </c>
       <c r="B86" t="n">
-        <v>142870</v>
+        <v>174081</v>
       </c>
       <c r="C86" t="s">
         <v>622</v>
@@ -11153,7 +11153,7 @@
         <v>61501</v>
       </c>
       <c r="B87" t="n">
-        <v>142871</v>
+        <v>174082</v>
       </c>
       <c r="C87" t="s">
         <v>628</v>
@@ -11220,7 +11220,7 @@
         <v>61501</v>
       </c>
       <c r="B88" t="n">
-        <v>142872</v>
+        <v>174083</v>
       </c>
       <c r="C88" t="s">
         <v>634</v>
@@ -11352,7 +11352,7 @@
         <v>61501</v>
       </c>
       <c r="B90" t="n">
-        <v>142873</v>
+        <v>174084</v>
       </c>
       <c r="C90" t="s">
         <v>647</v>
@@ -11417,7 +11417,7 @@
         <v>61501</v>
       </c>
       <c r="B91" t="n">
-        <v>142874</v>
+        <v>174085</v>
       </c>
       <c r="C91" t="s">
         <v>654</v>
@@ -11482,7 +11482,7 @@
         <v>61501</v>
       </c>
       <c r="B92" t="n">
-        <v>142875</v>
+        <v>174086</v>
       </c>
       <c r="C92" t="s">
         <v>661</v>
@@ -11539,7 +11539,7 @@
         <v>61501</v>
       </c>
       <c r="B93" t="n">
-        <v>142876</v>
+        <v>174087</v>
       </c>
       <c r="C93" t="s">
         <v>668</v>
@@ -11606,7 +11606,7 @@
         <v>61501</v>
       </c>
       <c r="B94" t="n">
-        <v>142877</v>
+        <v>174088</v>
       </c>
       <c r="C94" t="s">
         <v>674</v>
@@ -11671,7 +11671,7 @@
         <v>61501</v>
       </c>
       <c r="B95" t="n">
-        <v>142878</v>
+        <v>174089</v>
       </c>
       <c r="C95" t="s">
         <v>681</v>
@@ -11860,7 +11860,7 @@
         <v>61501</v>
       </c>
       <c r="B98" t="n">
-        <v>142879</v>
+        <v>174090</v>
       </c>
       <c r="C98" t="s">
         <v>701</v>
@@ -11927,7 +11927,7 @@
         <v>61501</v>
       </c>
       <c r="B99" t="n">
-        <v>142880</v>
+        <v>174091</v>
       </c>
       <c r="C99" t="s">
         <v>708</v>
@@ -11994,7 +11994,7 @@
         <v>61501</v>
       </c>
       <c r="B100" t="n">
-        <v>142881</v>
+        <v>174092</v>
       </c>
       <c r="C100" t="s">
         <v>714</v>
@@ -12059,7 +12059,7 @@
         <v>61501</v>
       </c>
       <c r="B101" t="n">
-        <v>142882</v>
+        <v>174093</v>
       </c>
       <c r="C101" t="s">
         <v>720</v>
@@ -12315,7 +12315,7 @@
         <v>61501</v>
       </c>
       <c r="B105" t="n">
-        <v>142883</v>
+        <v>174094</v>
       </c>
       <c r="C105" t="s">
         <v>749</v>
@@ -12569,7 +12569,7 @@
         <v>61501</v>
       </c>
       <c r="B109" t="n">
-        <v>142884</v>
+        <v>174095</v>
       </c>
       <c r="C109" t="s">
         <v>776</v>
@@ -12634,7 +12634,7 @@
         <v>61501</v>
       </c>
       <c r="B110" t="n">
-        <v>142885</v>
+        <v>174096</v>
       </c>
       <c r="C110" t="s">
         <v>781</v>
@@ -12695,7 +12695,7 @@
         <v>61501</v>
       </c>
       <c r="B111" t="n">
-        <v>142886</v>
+        <v>174097</v>
       </c>
       <c r="C111" t="s">
         <v>787</v>
@@ -12756,7 +12756,7 @@
         <v>61501</v>
       </c>
       <c r="B112" t="n">
-        <v>142887</v>
+        <v>174098</v>
       </c>
       <c r="C112" t="s">
         <v>793</v>
@@ -12817,7 +12817,7 @@
         <v>61501</v>
       </c>
       <c r="B113" t="n">
-        <v>142888</v>
+        <v>174099</v>
       </c>
       <c r="C113" t="s">
         <v>799</v>
@@ -12939,7 +12939,7 @@
         <v>61501</v>
       </c>
       <c r="B115" t="n">
-        <v>142889</v>
+        <v>174100</v>
       </c>
       <c r="C115" t="s">
         <v>813</v>
@@ -13057,7 +13057,7 @@
         <v>61501</v>
       </c>
       <c r="B117" t="n">
-        <v>142890</v>
+        <v>174101</v>
       </c>
       <c r="C117" t="s">
         <v>826</v>
@@ -13183,7 +13183,7 @@
         <v>61501</v>
       </c>
       <c r="B119" t="n">
-        <v>142891</v>
+        <v>174102</v>
       </c>
       <c r="C119" t="s">
         <v>839</v>
@@ -13311,7 +13311,7 @@
         <v>61501</v>
       </c>
       <c r="B121" t="n">
-        <v>142892</v>
+        <v>174103</v>
       </c>
       <c r="C121" t="s">
         <v>852</v>
@@ -13376,7 +13376,7 @@
         <v>61501</v>
       </c>
       <c r="B122" t="n">
-        <v>142893</v>
+        <v>174104</v>
       </c>
       <c r="C122" t="s">
         <v>859</v>
@@ -13494,7 +13494,7 @@
         <v>61501</v>
       </c>
       <c r="B124" t="n">
-        <v>142894</v>
+        <v>174105</v>
       </c>
       <c r="C124" t="s">
         <v>872</v>
@@ -13561,7 +13561,7 @@
         <v>61501</v>
       </c>
       <c r="B125" t="n">
-        <v>142895</v>
+        <v>174106</v>
       </c>
       <c r="C125" t="s">
         <v>878</v>
@@ -13622,7 +13622,7 @@
         <v>61501</v>
       </c>
       <c r="B126" t="n">
-        <v>142896</v>
+        <v>174107</v>
       </c>
       <c r="C126" t="s">
         <v>883</v>
@@ -13689,7 +13689,7 @@
         <v>61501</v>
       </c>
       <c r="B127" t="n">
-        <v>142897</v>
+        <v>174108</v>
       </c>
       <c r="C127" t="s">
         <v>890</v>
@@ -13756,7 +13756,7 @@
         <v>61501</v>
       </c>
       <c r="B128" t="n">
-        <v>142898</v>
+        <v>174109</v>
       </c>
       <c r="C128" t="s">
         <v>896</v>
@@ -13884,7 +13884,7 @@
         <v>61501</v>
       </c>
       <c r="B130" t="n">
-        <v>142899</v>
+        <v>174110</v>
       </c>
       <c r="C130" t="s">
         <v>912</v>
@@ -13945,7 +13945,7 @@
         <v>61501</v>
       </c>
       <c r="B131" t="n">
-        <v>142900</v>
+        <v>174111</v>
       </c>
       <c r="C131" t="s">
         <v>917</v>
@@ -14083,7 +14083,7 @@
         <v>61501</v>
       </c>
       <c r="B133" t="n">
-        <v>142901</v>
+        <v>174112</v>
       </c>
       <c r="C133" t="s">
         <v>933</v>
@@ -14219,7 +14219,7 @@
         <v>61501</v>
       </c>
       <c r="B135" t="n">
-        <v>142902</v>
+        <v>174113</v>
       </c>
       <c r="C135" t="s">
         <v>946</v>
@@ -14280,7 +14280,7 @@
         <v>61501</v>
       </c>
       <c r="B136" t="n">
-        <v>142903</v>
+        <v>174114</v>
       </c>
       <c r="C136" t="s">
         <v>952</v>
@@ -14341,7 +14341,7 @@
         <v>61501</v>
       </c>
       <c r="B137" t="n">
-        <v>142904</v>
+        <v>174115</v>
       </c>
       <c r="C137" t="s">
         <v>957</v>
@@ -14406,7 +14406,7 @@
         <v>61501</v>
       </c>
       <c r="B138" t="n">
-        <v>142905</v>
+        <v>174116</v>
       </c>
       <c r="C138" t="s">
         <v>963</v>
@@ -14467,7 +14467,7 @@
         <v>61501</v>
       </c>
       <c r="B139" t="n">
-        <v>142906</v>
+        <v>174117</v>
       </c>
       <c r="C139" t="s">
         <v>970</v>
@@ -14656,7 +14656,7 @@
         <v>61501</v>
       </c>
       <c r="B142" t="n">
-        <v>142907</v>
+        <v>174118</v>
       </c>
       <c r="C142" t="s">
         <v>987</v>
@@ -14717,7 +14717,7 @@
         <v>61501</v>
       </c>
       <c r="B143" t="n">
-        <v>142908</v>
+        <v>174119</v>
       </c>
       <c r="C143" t="s">
         <v>994</v>
@@ -14782,7 +14782,7 @@
         <v>61501</v>
       </c>
       <c r="B144" t="n">
-        <v>142909</v>
+        <v>174120</v>
       </c>
       <c r="C144" t="s">
         <v>1003</v>
@@ -14904,7 +14904,7 @@
         <v>61501</v>
       </c>
       <c r="B146" t="n">
-        <v>142910</v>
+        <v>174121</v>
       </c>
       <c r="C146" t="s">
         <v>1015</v>
@@ -14969,7 +14969,7 @@
         <v>61501</v>
       </c>
       <c r="B147" t="n">
-        <v>142911</v>
+        <v>174122</v>
       </c>
       <c r="C147" t="s">
         <v>1022</v>
@@ -15095,7 +15095,7 @@
         <v>61501</v>
       </c>
       <c r="B149" t="n">
-        <v>142912</v>
+        <v>174123</v>
       </c>
       <c r="C149" t="s">
         <v>1035</v>
@@ -15160,7 +15160,7 @@
         <v>61501</v>
       </c>
       <c r="B150" t="n">
-        <v>142913</v>
+        <v>174124</v>
       </c>
       <c r="C150" t="s">
         <v>1042</v>
@@ -15231,7 +15231,7 @@
         <v>61501</v>
       </c>
       <c r="B151" t="n">
-        <v>142914</v>
+        <v>174125</v>
       </c>
       <c r="C151" t="s">
         <v>1049</v>
@@ -15361,7 +15361,7 @@
         <v>61501</v>
       </c>
       <c r="B153" t="n">
-        <v>142915</v>
+        <v>174126</v>
       </c>
       <c r="C153" t="s">
         <v>1063</v>
@@ -15548,7 +15548,7 @@
         <v>61501</v>
       </c>
       <c r="B156" t="n">
-        <v>142916</v>
+        <v>174127</v>
       </c>
       <c r="C156" t="s">
         <v>1079</v>
@@ -15613,7 +15613,7 @@
         <v>61501</v>
       </c>
       <c r="B157" t="n">
-        <v>142917</v>
+        <v>174128</v>
       </c>
       <c r="C157" t="s">
         <v>1085</v>
@@ -15680,7 +15680,7 @@
         <v>61501</v>
       </c>
       <c r="B158" t="n">
-        <v>142918</v>
+        <v>174129</v>
       </c>
       <c r="C158" t="s">
         <v>1091</v>
@@ -15747,7 +15747,7 @@
         <v>61501</v>
       </c>
       <c r="B159" t="n">
-        <v>142919</v>
+        <v>174130</v>
       </c>
       <c r="C159" t="s">
         <v>1097</v>
@@ -15812,7 +15812,7 @@
         <v>61501</v>
       </c>
       <c r="B160" t="n">
-        <v>142920</v>
+        <v>174131</v>
       </c>
       <c r="C160" t="s">
         <v>1106</v>
@@ -15944,7 +15944,7 @@
         <v>61501</v>
       </c>
       <c r="B162" t="n">
-        <v>142921</v>
+        <v>174132</v>
       </c>
       <c r="C162" t="s">
         <v>1121</v>
@@ -16074,7 +16074,7 @@
         <v>61501</v>
       </c>
       <c r="B164" t="n">
-        <v>142922</v>
+        <v>174133</v>
       </c>
       <c r="C164" t="s">
         <v>1134</v>
@@ -16135,7 +16135,7 @@
         <v>61501</v>
       </c>
       <c r="B165" t="n">
-        <v>142923</v>
+        <v>174134</v>
       </c>
       <c r="C165" t="s">
         <v>1140</v>
@@ -16202,7 +16202,7 @@
         <v>61501</v>
       </c>
       <c r="B166" t="n">
-        <v>142924</v>
+        <v>174135</v>
       </c>
       <c r="C166" t="s">
         <v>1147</v>
@@ -16328,7 +16328,7 @@
         <v>61501</v>
       </c>
       <c r="B168" t="n">
-        <v>142925</v>
+        <v>174136</v>
       </c>
       <c r="C168" t="s">
         <v>1163</v>
@@ -16399,7 +16399,7 @@
         <v>61501</v>
       </c>
       <c r="B169" t="n">
-        <v>142926</v>
+        <v>174137</v>
       </c>
       <c r="C169" t="s">
         <v>1169</v>
@@ -16474,7 +16474,7 @@
         <v>61501</v>
       </c>
       <c r="B170" t="n">
-        <v>142927</v>
+        <v>174138</v>
       </c>
       <c r="C170" t="s">
         <v>1175</v>
@@ -16545,7 +16545,7 @@
         <v>61501</v>
       </c>
       <c r="B171" t="n">
-        <v>142928</v>
+        <v>174139</v>
       </c>
       <c r="C171" t="s">
         <v>1181</v>
@@ -16616,7 +16616,7 @@
         <v>61501</v>
       </c>
       <c r="B172" t="n">
-        <v>142929</v>
+        <v>174140</v>
       </c>
       <c r="C172" t="s">
         <v>1187</v>
@@ -16687,7 +16687,7 @@
         <v>61501</v>
       </c>
       <c r="B173" t="n">
-        <v>142930</v>
+        <v>174141</v>
       </c>
       <c r="C173" t="s">
         <v>1193</v>
@@ -16758,7 +16758,7 @@
         <v>61501</v>
       </c>
       <c r="B174" t="n">
-        <v>142931</v>
+        <v>174142</v>
       </c>
       <c r="C174" t="s">
         <v>1198</v>
@@ -16829,7 +16829,7 @@
         <v>61501</v>
       </c>
       <c r="B175" t="n">
-        <v>142932</v>
+        <v>174143</v>
       </c>
       <c r="C175" t="s">
         <v>1203</v>
@@ -16900,7 +16900,7 @@
         <v>61501</v>
       </c>
       <c r="B176" t="n">
-        <v>142933</v>
+        <v>174144</v>
       </c>
       <c r="C176" t="s">
         <v>1209</v>
@@ -17117,7 +17117,7 @@
         <v>61501</v>
       </c>
       <c r="B179" t="n">
-        <v>142934</v>
+        <v>174145</v>
       </c>
       <c r="C179" t="s">
         <v>1229</v>
@@ -17188,7 +17188,7 @@
         <v>61501</v>
       </c>
       <c r="B180" t="n">
-        <v>142935</v>
+        <v>174146</v>
       </c>
       <c r="C180" t="s">
         <v>1236</v>
@@ -17334,7 +17334,7 @@
         <v>61501</v>
       </c>
       <c r="B182" t="n">
-        <v>142936</v>
+        <v>174147</v>
       </c>
       <c r="C182" t="s">
         <v>1251</v>
@@ -17405,7 +17405,7 @@
         <v>61501</v>
       </c>
       <c r="B183" t="n">
-        <v>142937</v>
+        <v>174148</v>
       </c>
       <c r="C183" t="s">
         <v>1256</v>
@@ -17476,7 +17476,7 @@
         <v>61501</v>
       </c>
       <c r="B184" t="n">
-        <v>142938</v>
+        <v>174149</v>
       </c>
       <c r="C184" t="s">
         <v>1261</v>
@@ -17537,7 +17537,7 @@
         <v>61501</v>
       </c>
       <c r="B185" t="n">
-        <v>142939</v>
+        <v>174150</v>
       </c>
       <c r="C185" t="s">
         <v>1268</v>
@@ -17608,7 +17608,7 @@
         <v>61501</v>
       </c>
       <c r="B186" t="n">
-        <v>142940</v>
+        <v>174151</v>
       </c>
       <c r="C186" t="s">
         <v>1274</v>
@@ -17750,7 +17750,7 @@
         <v>61501</v>
       </c>
       <c r="B188" t="n">
-        <v>142941</v>
+        <v>174152</v>
       </c>
       <c r="C188" t="s">
         <v>1284</v>
@@ -17821,7 +17821,7 @@
         <v>61501</v>
       </c>
       <c r="B189" t="n">
-        <v>142942</v>
+        <v>174153</v>
       </c>
       <c r="C189" t="s">
         <v>1291</v>
@@ -17892,7 +17892,7 @@
         <v>61501</v>
       </c>
       <c r="B190" t="n">
-        <v>142943</v>
+        <v>174154</v>
       </c>
       <c r="C190" t="s">
         <v>1297</v>
@@ -17959,7 +17959,7 @@
         <v>61501</v>
       </c>
       <c r="B191" t="n">
-        <v>142944</v>
+        <v>174155</v>
       </c>
       <c r="C191" t="s">
         <v>1303</v>
@@ -18030,7 +18030,7 @@
         <v>61501</v>
       </c>
       <c r="B192" t="n">
-        <v>142945</v>
+        <v>174156</v>
       </c>
       <c r="C192" t="s">
         <v>1309</v>
@@ -18101,7 +18101,7 @@
         <v>61501</v>
       </c>
       <c r="B193" t="n">
-        <v>142946</v>
+        <v>174157</v>
       </c>
       <c r="C193" t="s">
         <v>1315</v>
@@ -18176,7 +18176,7 @@
         <v>61501</v>
       </c>
       <c r="B194" t="n">
-        <v>142947</v>
+        <v>174158</v>
       </c>
       <c r="C194" t="s">
         <v>1323</v>
@@ -18247,7 +18247,7 @@
         <v>61501</v>
       </c>
       <c r="B195" t="n">
-        <v>142948</v>
+        <v>174159</v>
       </c>
       <c r="C195" t="s">
         <v>1328</v>
@@ -18314,7 +18314,7 @@
         <v>61501</v>
       </c>
       <c r="B196" t="n">
-        <v>142949</v>
+        <v>174160</v>
       </c>
       <c r="C196" t="s">
         <v>1335</v>
@@ -18385,7 +18385,7 @@
         <v>61501</v>
       </c>
       <c r="B197" t="n">
-        <v>142950</v>
+        <v>174161</v>
       </c>
       <c r="C197" t="s">
         <v>1341</v>
@@ -18527,7 +18527,7 @@
         <v>61501</v>
       </c>
       <c r="B199" t="n">
-        <v>142951</v>
+        <v>174162</v>
       </c>
       <c r="C199" t="s">
         <v>1353</v>
@@ -18598,7 +18598,7 @@
         <v>61501</v>
       </c>
       <c r="B200" t="n">
-        <v>142952</v>
+        <v>174163</v>
       </c>
       <c r="C200" t="s">
         <v>1361</v>
@@ -18669,7 +18669,7 @@
         <v>61501</v>
       </c>
       <c r="B201" t="n">
-        <v>142953</v>
+        <v>174164</v>
       </c>
       <c r="C201" t="s">
         <v>1368</v>
@@ -18807,7 +18807,7 @@
         <v>61501</v>
       </c>
       <c r="B203" t="n">
-        <v>142954</v>
+        <v>174165</v>
       </c>
       <c r="C203" t="s">
         <v>1380</v>
@@ -18882,7 +18882,7 @@
         <v>61501</v>
       </c>
       <c r="B204" t="n">
-        <v>142955</v>
+        <v>174166</v>
       </c>
       <c r="C204" t="s">
         <v>1387</v>
@@ -18949,7 +18949,7 @@
         <v>61501</v>
       </c>
       <c r="B205" t="n">
-        <v>142956</v>
+        <v>174167</v>
       </c>
       <c r="C205" t="s">
         <v>1394</v>
@@ -19020,7 +19020,7 @@
         <v>61501</v>
       </c>
       <c r="B206" t="n">
-        <v>142957</v>
+        <v>174168</v>
       </c>
       <c r="C206" t="s">
         <v>1400</v>
@@ -19091,7 +19091,7 @@
         <v>61501</v>
       </c>
       <c r="B207" t="n">
-        <v>142958</v>
+        <v>174169</v>
       </c>
       <c r="C207" t="s">
         <v>1406</v>
@@ -19160,7 +19160,7 @@
         <v>61501</v>
       </c>
       <c r="B208" t="n">
-        <v>142959</v>
+        <v>174170</v>
       </c>
       <c r="C208" t="s">
         <v>1415</v>
@@ -19296,7 +19296,7 @@
         <v>61501</v>
       </c>
       <c r="B210" t="n">
-        <v>142960</v>
+        <v>174171</v>
       </c>
       <c r="C210" t="s">
         <v>1431</v>
@@ -19363,7 +19363,7 @@
         <v>61501</v>
       </c>
       <c r="B211" t="n">
-        <v>142961</v>
+        <v>174172</v>
       </c>
       <c r="C211" t="s">
         <v>1438</v>
@@ -19566,7 +19566,7 @@
         <v>61501</v>
       </c>
       <c r="B214" t="n">
-        <v>142962</v>
+        <v>174173</v>
       </c>
       <c r="C214" t="s">
         <v>1458</v>
@@ -19637,7 +19637,7 @@
         <v>61501</v>
       </c>
       <c r="B215" t="n">
-        <v>142963</v>
+        <v>174174</v>
       </c>
       <c r="C215" t="s">
         <v>1464</v>
@@ -19708,7 +19708,7 @@
         <v>61501</v>
       </c>
       <c r="B216" t="n">
-        <v>142964</v>
+        <v>174175</v>
       </c>
       <c r="C216" t="s">
         <v>1470</v>
@@ -19846,7 +19846,7 @@
         <v>61501</v>
       </c>
       <c r="B218" t="n">
-        <v>142965</v>
+        <v>174176</v>
       </c>
       <c r="C218" t="s">
         <v>1483</v>
@@ -19917,7 +19917,7 @@
         <v>61501</v>
       </c>
       <c r="B219" t="n">
-        <v>142966</v>
+        <v>174177</v>
       </c>
       <c r="C219" t="s">
         <v>1489</v>
@@ -19982,7 +19982,7 @@
         <v>61501</v>
       </c>
       <c r="B220" t="n">
-        <v>142967</v>
+        <v>174178</v>
       </c>
       <c r="C220" t="s">
         <v>1497</v>
@@ -20047,7 +20047,7 @@
         <v>61501</v>
       </c>
       <c r="B221" t="n">
-        <v>142968</v>
+        <v>174179</v>
       </c>
       <c r="C221" t="s">
         <v>1506</v>
@@ -20104,7 +20104,7 @@
         <v>61501</v>
       </c>
       <c r="B222" t="n">
-        <v>142969</v>
+        <v>174180</v>
       </c>
       <c r="C222" t="s">
         <v>1513</v>
@@ -20161,7 +20161,7 @@
         <v>61501</v>
       </c>
       <c r="B223" t="n">
-        <v>142970</v>
+        <v>174181</v>
       </c>
       <c r="C223" t="s">
         <v>1520</v>
@@ -20226,7 +20226,7 @@
         <v>61501</v>
       </c>
       <c r="B224" t="n">
-        <v>142971</v>
+        <v>174182</v>
       </c>
       <c r="C224" t="s">
         <v>1528</v>
@@ -20293,7 +20293,7 @@
         <v>61501</v>
       </c>
       <c r="B225" t="n">
-        <v>142972</v>
+        <v>174183</v>
       </c>
       <c r="C225" t="s">
         <v>1536</v>
@@ -20427,7 +20427,7 @@
         <v>61501</v>
       </c>
       <c r="B227" t="n">
-        <v>142973</v>
+        <v>174184</v>
       </c>
       <c r="C227" t="s">
         <v>1549</v>
@@ -20545,7 +20545,7 @@
         <v>61501</v>
       </c>
       <c r="B229" t="n">
-        <v>142974</v>
+        <v>174185</v>
       </c>
       <c r="C229" t="s">
         <v>1563</v>
@@ -20606,7 +20606,7 @@
         <v>61501</v>
       </c>
       <c r="B230" t="n">
-        <v>142975</v>
+        <v>174186</v>
       </c>
       <c r="C230" t="s">
         <v>1570</v>
@@ -20671,7 +20671,7 @@
         <v>61501</v>
       </c>
       <c r="B231" t="n">
-        <v>142976</v>
+        <v>174187</v>
       </c>
       <c r="C231" t="s">
         <v>1579</v>
@@ -20728,7 +20728,7 @@
         <v>61501</v>
       </c>
       <c r="B232" t="n">
-        <v>142977</v>
+        <v>174188</v>
       </c>
       <c r="C232" t="s">
         <v>1585</v>
@@ -20793,7 +20793,7 @@
         <v>61501</v>
       </c>
       <c r="B233" t="n">
-        <v>142978</v>
+        <v>174189</v>
       </c>
       <c r="C233" t="s">
         <v>1593</v>
@@ -20982,7 +20982,7 @@
         <v>61501</v>
       </c>
       <c r="B236" t="n">
-        <v>142979</v>
+        <v>174190</v>
       </c>
       <c r="C236" t="s">
         <v>1615</v>
@@ -21049,7 +21049,7 @@
         <v>61501</v>
       </c>
       <c r="B237" t="n">
-        <v>142980</v>
+        <v>174191</v>
       </c>
       <c r="C237" t="s">
         <v>1623</v>
@@ -21114,7 +21114,7 @@
         <v>61501</v>
       </c>
       <c r="B238" t="n">
-        <v>142981</v>
+        <v>174192</v>
       </c>
       <c r="C238" t="s">
         <v>1629</v>
@@ -21183,7 +21183,7 @@
         <v>61501</v>
       </c>
       <c r="B239" t="n">
-        <v>142982</v>
+        <v>174193</v>
       </c>
       <c r="C239" t="s">
         <v>1639</v>
@@ -21252,7 +21252,7 @@
         <v>61501</v>
       </c>
       <c r="B240" t="n">
-        <v>142983</v>
+        <v>174194</v>
       </c>
       <c r="C240" t="s">
         <v>1649</v>
@@ -21386,7 +21386,7 @@
         <v>61501</v>
       </c>
       <c r="B242" t="n">
-        <v>142984</v>
+        <v>174195</v>
       </c>
       <c r="C242" t="s">
         <v>1663</v>
